--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="78">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -200,6 +200,72 @@
   </si>
   <si>
     <t>record download</t>
+  </si>
+  <si>
+    <t>Voyage Snapshot Load Successfully</t>
+  </si>
+  <si>
+    <t>Contect deatils loading</t>
+  </si>
+  <si>
+    <t>Crew Info Load Successfully</t>
+  </si>
+  <si>
+    <t>27 Dec 2023</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Opend</t>
+  </si>
+  <si>
+    <t>Financial Load Successfully</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>Vessel Particulars Loading</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Download Successfully</t>
+  </si>
+  <si>
+    <t>12 Dec 2023</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Aug 2023</t>
+  </si>
+  <si>
+    <t>18 Jan 2024</t>
+  </si>
+  <si>
+    <t>21 Jan 2024</t>
+  </si>
+  <si>
+    <t>Financial Not Loading</t>
+  </si>
+  <si>
+    <t>Jan 2024</t>
+  </si>
+  <si>
+    <t>Financial Header Not Loading</t>
+  </si>
+  <si>
+    <t>26 Jan 2024</t>
   </si>
 </sst>
 </file>
@@ -207,7 +273,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +386,1591 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -370,6 +2021,323 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +2669,17 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>49</v>
+      <c r="C2" t="s" s="314">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s" s="316">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="322">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s" s="315">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -712,8 +2689,20 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
+      <c r="C3" t="s" s="276">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s" s="278">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s" s="284">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s" s="40">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s" s="277">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -723,8 +2712,20 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>49</v>
+      <c r="C4" t="s" s="331">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s" s="333">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s" s="339">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s" s="72">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s" s="332">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -783,6 +2784,21 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
+      <c r="C2" t="s" s="317">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s" s="318">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s" s="319">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s" s="320">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s" s="321">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -791,6 +2807,21 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s" s="279">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s" s="280">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s" s="281">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s" s="282">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s" s="283">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -798,6 +2829,21 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" t="s" s="334">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s" s="335">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s" s="336">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s" s="337">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s" s="338">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -866,26 +2912,26 @@
         <v>38</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" t="s" s="323">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s" s="324">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s" s="326">
         <v>44</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s" s="325">
         <v>45</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s" s="327">
         <v>45</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s" s="328">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s" s="329">
         <v>46</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -895,6 +2941,27 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="E3" t="s" s="285">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="286">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="288">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="287">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s" s="289">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s" s="290">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s" s="292">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -902,6 +2969,27 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="E4" t="s" s="162">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s" s="163">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="165">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s" s="164">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s" s="166">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s" s="140">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s" s="142">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -956,6 +3044,12 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s" s="41">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s" s="42">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -963,6 +3057,12 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" t="s" s="73">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +3124,7 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s" s="330">
         <v>47</v>
       </c>
     </row>
@@ -1035,6 +3135,24 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="E3" t="s" s="43">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s" s="44">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="291">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s" s="46">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s" s="47">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1042,6 +3160,24 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="E4" t="s" s="75">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="76">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="141">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="77">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="78">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s" s="79">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1095,6 +3231,15 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s" s="50">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="51">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s" s="52">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1102,6 +3247,15 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" t="s" s="84">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="85">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s" s="86">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1153,6 +3307,12 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s" s="53">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="54">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1160,6 +3320,12 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" t="s" s="87">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="88">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +3381,7 @@
       <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" t="s" s="49">
         <v>48</v>
       </c>
     </row>
@@ -1223,13 +3389,13 @@
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s" s="20">
+      <c r="B4" t="s" s="81">
         <v>46</v>
       </c>
-      <c r="C4" t="s" s="21">
+      <c r="C4" t="s" s="82">
         <v>54</v>
       </c>
-      <c r="D4" t="s" s="22">
+      <c r="D4" t="s" s="83">
         <v>55</v>
       </c>
     </row>

--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="78">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -273,7 +273,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="346" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1971,6 +1971,41 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1993,7 +2028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2338,6 +2373,13 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2689,10 +2731,10 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="276">
+      <c r="C3" t="s" s="340">
         <v>56</v>
       </c>
-      <c r="D3" t="s" s="278">
+      <c r="D3" t="s" s="342">
         <v>58</v>
       </c>
       <c r="E3" t="s" s="284">
@@ -2701,7 +2743,7 @@
       <c r="F3" t="s" s="40">
         <v>65</v>
       </c>
-      <c r="G3" t="s" s="277">
+      <c r="G3" t="s" s="341">
         <v>57</v>
       </c>
     </row>
@@ -2807,16 +2849,16 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="279">
+      <c r="C3" t="s" s="343">
         <v>72</v>
       </c>
-      <c r="D3" t="s" s="280">
+      <c r="D3" t="s" s="344">
         <v>60</v>
       </c>
-      <c r="F3" t="s" s="281">
+      <c r="F3" t="s" s="345">
         <v>69</v>
       </c>
-      <c r="G3" t="s" s="282">
+      <c r="G3" t="s" s="346">
         <v>62</v>
       </c>
       <c r="H3" t="s" s="283">

--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkInno\Poonam\TestingCodeRepositry\Automation-coding-Task\com.AE_Management\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F708DAC6-9180-4844-8416-77B10B2A84B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D49FE-A9DC-4937-A305-8A18683ABEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="106">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -148,9 +148,6 @@
     <t>record display</t>
   </si>
   <si>
-    <t>Download Popup Not shown</t>
-  </si>
-  <si>
     <t>No record to display</t>
   </si>
   <si>
@@ -175,131 +172,192 @@
     <t>Loading</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Opend</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Download Successfully</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Voyage Snapshot Load Successfully</t>
+  </si>
+  <si>
+    <t>Contect deatils loading</t>
+  </si>
+  <si>
+    <t>Crew Info Load Successfully</t>
+  </si>
+  <si>
+    <t>Vessel Particulars Loading</t>
+  </si>
+  <si>
+    <t>Oct 2023</t>
+  </si>
+  <si>
+    <t>2023-11-06 06:27:11.000</t>
+  </si>
+  <si>
+    <t>FBLJ</t>
+  </si>
+  <si>
+    <t>Federal Baltic</t>
+  </si>
+  <si>
+    <t>2023-11-06 06:27:09.000</t>
+  </si>
+  <si>
+    <t>FCMJ</t>
+  </si>
+  <si>
+    <t>Federal Champlain</t>
+  </si>
+  <si>
+    <t>2023-11-06 06:27:07.000</t>
+  </si>
+  <si>
+    <t>FCUJ</t>
+  </si>
+  <si>
+    <t>Federal Churchill</t>
+  </si>
+  <si>
+    <t>2023-11-06 06:27:10.000</t>
+  </si>
+  <si>
+    <t>FRDJ</t>
+  </si>
+  <si>
+    <t>Federal Delta</t>
+  </si>
+  <si>
+    <t>FHNJ</t>
+  </si>
+  <si>
+    <t>Federal Hamilton</t>
+  </si>
+  <si>
+    <t>FHSJ</t>
+  </si>
+  <si>
+    <t>Federal Hudson</t>
+  </si>
+  <si>
+    <t>FTBJ</t>
+  </si>
+  <si>
+    <t>Federal Thunder Bay</t>
+  </si>
+  <si>
+    <t>Apr 2023</t>
+  </si>
+  <si>
+    <t>2023-05-31 04:03:30.000</t>
+  </si>
+  <si>
+    <t>FYSJ</t>
+  </si>
+  <si>
+    <t>Federal Yoshino</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>06 Jan 2024</t>
+  </si>
+  <si>
+    <t>Financial Load Successfully</t>
+  </si>
+  <si>
+    <t>Jan 2024</t>
+  </si>
+  <si>
+    <t>Financial Header Not Loading</t>
+  </si>
+  <si>
+    <t>Opex Report is not yet published</t>
+  </si>
+  <si>
+    <t>20 Jan 2024</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>18 Jan 2024</t>
-  </si>
-  <si>
-    <t>21 Jan 2024</t>
+    <t>22 Dec 2023</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>06 Feb 2024</t>
+  </si>
+  <si>
+    <t>Financial Not Loading</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>26 Jan 2024</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Voyage Snapshot Load Successfully</t>
-  </si>
-  <si>
-    <t>Contect deatils loading</t>
-  </si>
-  <si>
-    <t>Crew Info Load Successfully</t>
-  </si>
-  <si>
-    <t>Vessel Particulars Loading</t>
-  </si>
-  <si>
-    <t>FAIJ</t>
-  </si>
-  <si>
-    <t>Federal Asahi</t>
-  </si>
-  <si>
-    <t>Oct 2023</t>
-  </si>
-  <si>
-    <t>2023-11-06 06:27:11.000</t>
-  </si>
-  <si>
-    <t>FBLJ</t>
-  </si>
-  <si>
-    <t>Federal Baltic</t>
-  </si>
-  <si>
-    <t>2023-11-06 06:27:09.000</t>
-  </si>
-  <si>
-    <t>FCMJ</t>
-  </si>
-  <si>
-    <t>Federal Champlain</t>
-  </si>
-  <si>
-    <t>2023-11-06 06:27:07.000</t>
-  </si>
-  <si>
-    <t>FCUJ</t>
-  </si>
-  <si>
-    <t>Federal Churchill</t>
-  </si>
-  <si>
-    <t>2023-11-06 06:27:10.000</t>
-  </si>
-  <si>
-    <t>FRDJ</t>
-  </si>
-  <si>
-    <t>Federal Delta</t>
-  </si>
-  <si>
-    <t>FHNJ</t>
-  </si>
-  <si>
-    <t>Federal Hamilton</t>
-  </si>
-  <si>
-    <t>FHSJ</t>
-  </si>
-  <si>
-    <t>Federal Hudson</t>
-  </si>
-  <si>
-    <t>FTBJ</t>
-  </si>
-  <si>
-    <t>Federal Thunder Bay</t>
-  </si>
-  <si>
-    <t>Apr 2023</t>
-  </si>
-  <si>
-    <t>2023-05-31 04:03:30.000</t>
-  </si>
-  <si>
-    <t>FYSJ</t>
-  </si>
-  <si>
-    <t>Federal Yoshino</t>
+    <t>19 Jan 2024</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>03 Jan 2024</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>04 Feb 2024</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>AANJ</t>
+  </si>
+  <si>
+    <t>AM Annaba</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>Financial Header Load</t>
+  </si>
+  <si>
+    <t>Opex Report published</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="101" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="334" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,491 +380,1929 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="2">
@@ -829,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -936,6 +2432,239 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,21 +2945,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.35">
@@ -1241,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1262,140 +2991,210 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="D2" t="s" s="277">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="279">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s" s="285">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s" s="294">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s" s="278">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="314">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="316">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s" s="322">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="331">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s" s="315">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="91" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
+      <c r="G7" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
+      <c r="D8" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="179" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="172" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="204" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="206" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="210" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="218" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="205" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1405,19 +3204,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CE8410-A6DB-4FC4-92C1-487C273E1D5E}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.35">
@@ -1449,119 +3248,177 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="280">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s" s="281">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s" s="282">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s" s="283">
         <v>46</v>
       </c>
-      <c r="F2" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>46</v>
+      <c r="H2" t="s" s="284">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s" s="317">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s" s="318">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s" s="319">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="320">
         <v>46</v>
       </c>
-      <c r="F3" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>46</v>
+      <c r="H3" t="s" s="321">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>46</v>
+      <c r="H4" s="42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="110" t="s">
         <v>76</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="143" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="178" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="209" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1571,16 +3428,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086D67AF-7C22-49F6-BB50-1A038B75270D}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38" x14ac:dyDescent="0.35">
@@ -1625,149 +3482,282 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+        <v>57</v>
+      </c>
+      <c r="E2" t="s" s="286">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s" s="287">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s" s="289">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s" s="288">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s" s="290">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s" s="291">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s" s="293">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="E3" t="s" s="323">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="324">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="326">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="325">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="327">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s" s="328">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s" s="330">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="118" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="E7" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="151" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
+      <c r="H8" s="183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="182" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="187" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="211" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="214" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
+      <c r="J9" s="215" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="216" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="217" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1777,17 +3767,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CA29D-F6C3-4986-9E24-FB9D86A6D1D9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.35">
@@ -1809,92 +3799,114 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="295">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s" s="296">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="s" s="332">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s" s="333">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="153" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="190" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="220" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1904,17 +3916,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F98D150-381D-4A81-962F-2F4E3B097BDC}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.6328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="13.6328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.35">
@@ -1951,131 +3963,258 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="297">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="298">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="299">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="301">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s" s="305">
         <v>21</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="55" t="s">
+      <c r="I2" t="s" s="302">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="303">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s" s="304">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s" s="334">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s" s="329">
         <v>21</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="H4" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="128" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="161" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="192" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="186" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="195" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="197" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="221" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="222" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="223" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="224" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="228" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="225" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="227" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2085,18 +4224,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95CB399-116C-42EF-804E-B4F42D061677}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2116,101 +4255,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>39</v>
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="309">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="310">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s" s="311">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="168" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="200" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="201" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="232" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="233" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="234" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2221,16 +4397,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8ADAAD-0A8F-45C6-956C-CA2924AD7934}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,92 +4425,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s" s="312">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="313">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="169" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="202" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="203" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="235" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="236" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2344,29 +4542,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C04729E-A523-4D8F-8957-B186D5451AFF}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -2376,66 +4574,100 @@
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>45</v>
+      <c r="B2" t="s" s="306">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="307">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="308">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="89" t="s">
         <v>39</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B5" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="164" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B8" s="198" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="230" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="231" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="107">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>98</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="334" x14ac:knownFonts="1">
+  <fonts count="477" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2303,6 +2306,721 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2325,7 +3043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2665,6 +3383,149 @@
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2999,19 +3860,19 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s" s="277">
+      <c r="D2" t="s" s="335">
         <v>49</v>
       </c>
-      <c r="E2" t="s" s="279">
+      <c r="E2" t="s" s="337">
         <v>51</v>
       </c>
-      <c r="F2" t="s" s="285">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s" s="294">
+      <c r="F2" t="s" s="342">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s" s="351">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="278">
+      <c r="H2" t="s" s="336">
         <v>50</v>
       </c>
     </row>
@@ -3025,19 +3886,19 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="314">
+      <c r="D3" t="s" s="371">
         <v>49</v>
       </c>
-      <c r="E3" t="s" s="316">
+      <c r="E3" t="s" s="373">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="322">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s" s="331">
+      <c r="F3" t="s" s="379">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="388">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="315">
+      <c r="H3" t="s" s="372">
         <v>50</v>
       </c>
     </row>
@@ -3051,19 +3912,19 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" t="s" s="406">
         <v>49</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" t="s" s="408">
         <v>51</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" t="s" s="414">
         <v>78</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" t="s" s="423">
         <v>52</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" t="s" s="407">
         <v>50</v>
       </c>
     </row>
@@ -3077,19 +3938,19 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" t="s" s="443">
         <v>49</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" t="s" s="445">
         <v>51</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="86" t="s">
+      <c r="F5" t="s" s="451">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s" s="460">
         <v>52</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" t="s" s="444">
         <v>50</v>
       </c>
     </row>
@@ -3253,16 +4114,16 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="280">
+      <c r="C2" t="s" s="338">
         <v>77</v>
       </c>
-      <c r="D2" t="s" s="281">
+      <c r="D2" t="s" s="339">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="282">
+      <c r="F2" t="s" s="340">
         <v>83</v>
       </c>
-      <c r="G2" t="s" s="283">
+      <c r="G2" t="s" s="341">
         <v>46</v>
       </c>
       <c r="H2" t="s" s="284">
@@ -3276,19 +4137,19 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="317">
+      <c r="C3" t="s" s="374">
         <v>91</v>
       </c>
-      <c r="D3" t="s" s="318">
+      <c r="D3" t="s" s="375">
         <v>45</v>
       </c>
-      <c r="F3" t="s" s="319">
+      <c r="F3" t="s" s="376">
         <v>76</v>
       </c>
-      <c r="G3" t="s" s="320">
+      <c r="G3" t="s" s="377">
         <v>46</v>
       </c>
-      <c r="H3" t="s" s="321">
+      <c r="H3" t="s" s="378">
         <v>45</v>
       </c>
     </row>
@@ -3299,19 +4160,19 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" t="s" s="409">
         <v>82</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" t="s" s="410">
         <v>45</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" t="s" s="411">
         <v>83</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" t="s" s="412">
         <v>46</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" t="s" s="413">
         <v>45</v>
       </c>
     </row>
@@ -3322,19 +4183,19 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" t="s" s="446">
         <v>84</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" t="s" s="447">
         <v>45</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" t="s" s="448">
         <v>76</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" t="s" s="449">
         <v>46</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" t="s" s="450">
         <v>45</v>
       </c>
     </row>
@@ -3493,25 +4354,25 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s" s="286">
+      <c r="E2" t="s" s="343">
         <v>102</v>
       </c>
-      <c r="G2" t="s" s="287">
+      <c r="G2" t="s" s="344">
         <v>103</v>
       </c>
-      <c r="H2" t="s" s="289">
+      <c r="H2" t="s" s="346">
         <v>103</v>
       </c>
-      <c r="I2" t="s" s="288">
+      <c r="I2" t="s" s="345">
         <v>104</v>
       </c>
-      <c r="J2" t="s" s="290">
+      <c r="J2" t="s" s="347">
         <v>104</v>
       </c>
-      <c r="K2" t="s" s="291">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s" s="293">
+      <c r="K2" t="s" s="348">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s" s="350">
         <v>37</v>
       </c>
     </row>
@@ -3528,25 +4389,25 @@
       <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s" s="323">
+      <c r="E3" t="s" s="380">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="324">
+      <c r="G3" t="s" s="381">
         <v>80</v>
       </c>
-      <c r="H3" t="s" s="326">
+      <c r="H3" t="s" s="383">
         <v>80</v>
       </c>
-      <c r="I3" t="s" s="325">
+      <c r="I3" t="s" s="382">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="327">
+      <c r="J3" t="s" s="384">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="328">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s" s="330">
+      <c r="K3" t="s" s="385">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s" s="387">
         <v>38</v>
       </c>
     </row>
@@ -3563,25 +4424,25 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" t="s" s="415">
         <v>79</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" t="s" s="416">
         <v>80</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" t="s" s="418">
         <v>80</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" t="s" s="417">
         <v>81</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" t="s" s="419">
         <v>81</v>
       </c>
-      <c r="K4" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="50" t="s">
+      <c r="K4" t="s" s="420">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s" s="422">
         <v>38</v>
       </c>
     </row>
@@ -3598,25 +4459,25 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" t="s" s="452">
         <v>79</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" t="s" s="453">
         <v>80</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" t="s" s="455">
         <v>80</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" t="s" s="454">
         <v>81</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" t="s" s="456">
         <v>81</v>
       </c>
-      <c r="K5" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="85" t="s">
+      <c r="K5" t="s" s="457">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s" s="459">
         <v>38</v>
       </c>
     </row>
@@ -3804,10 +4665,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="295">
+      <c r="C2" t="s" s="352">
         <v>105</v>
       </c>
-      <c r="E2" t="s" s="296">
+      <c r="E2" t="s" s="353">
         <v>47</v>
       </c>
     </row>
@@ -3818,10 +4679,10 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="332">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s" s="333">
+      <c r="C3" t="s" s="389">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s" s="390">
         <v>47</v>
       </c>
     </row>
@@ -3832,10 +4693,10 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" t="s" s="424">
         <v>94</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" t="s" s="425">
         <v>47</v>
       </c>
     </row>
@@ -3846,10 +4707,10 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" t="s" s="461">
         <v>85</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" t="s" s="462">
         <v>47</v>
       </c>
     </row>
@@ -3968,28 +4829,28 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="297">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="298">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s" s="299">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s" s="301">
+      <c r="C2" t="s" s="354">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="355">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="356">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="358">
         <v>38</v>
       </c>
-      <c r="H2" t="s" s="305">
+      <c r="H2" t="s" s="362">
         <v>21</v>
       </c>
-      <c r="I2" t="s" s="302">
+      <c r="I2" t="s" s="359">
         <v>38</v>
       </c>
-      <c r="K2" t="s" s="303">
+      <c r="K2" t="s" s="360">
         <v>38</v>
       </c>
-      <c r="L2" t="s" s="304">
+      <c r="L2" t="s" s="361">
         <v>37</v>
       </c>
     </row>
@@ -4000,28 +4861,28 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="334">
-        <v>37</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="C3" t="s" s="391">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="392">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s" s="393">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s" s="395">
         <v>38</v>
       </c>
-      <c r="H3" t="s" s="329">
+      <c r="H3" t="s" s="399">
         <v>21</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" t="s" s="396">
         <v>38</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="K3" t="s" s="397">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s" s="398">
         <v>37</v>
       </c>
     </row>
@@ -4032,28 +4893,28 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="57" t="s">
+      <c r="C4" t="s" s="426">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="427">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="428">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="430">
         <v>38</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" t="s" s="434">
         <v>21</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" t="s" s="431">
         <v>38</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="60" t="s">
+      <c r="K4" t="s" s="432">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s" s="433">
         <v>37</v>
       </c>
     </row>
@@ -4064,28 +4925,28 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="92" t="s">
+      <c r="C5" t="s" s="463">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="464">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="465">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s" s="467">
         <v>38</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" t="s" s="471">
         <v>21</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" t="s" s="468">
         <v>38</v>
       </c>
-      <c r="K5" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="95" t="s">
+      <c r="K5" t="s" s="469">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s" s="470">
         <v>37</v>
       </c>
     </row>
@@ -4260,13 +5121,13 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="309">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="310">
+      <c r="C2" t="s" s="366">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="367">
         <v>44</v>
       </c>
-      <c r="E2" t="s" s="311">
+      <c r="E2" t="s" s="368">
         <v>38</v>
       </c>
     </row>
@@ -4277,13 +5138,13 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" t="s" s="401">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="402">
         <v>44</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" t="s" s="403">
         <v>38</v>
       </c>
     </row>
@@ -4294,13 +5155,13 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="66" t="s">
+      <c r="C4" t="s" s="438">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="439">
         <v>44</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" t="s" s="440">
         <v>38</v>
       </c>
     </row>
@@ -4311,13 +5172,13 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="101" t="s">
+      <c r="C5" t="s" s="475">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="476">
         <v>44</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" t="s" s="477">
         <v>38</v>
       </c>
     </row>
@@ -4430,10 +5291,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="312">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="313">
+      <c r="C2" t="s" s="369">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="370">
         <v>37</v>
       </c>
     </row>
@@ -4444,10 +5305,10 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" t="s" s="404">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="405">
         <v>37</v>
       </c>
     </row>
@@ -4458,10 +5319,10 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="69" t="s">
+      <c r="C4" t="s" s="441">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="442">
         <v>37</v>
       </c>
     </row>
@@ -4574,13 +5435,13 @@
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="306">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s" s="307">
+      <c r="B2" t="s" s="363">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="364">
         <v>48</v>
       </c>
-      <c r="D2" t="s" s="308">
+      <c r="D2" t="s" s="365">
         <v>44</v>
       </c>
     </row>
@@ -4588,7 +5449,7 @@
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" t="s" s="400">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4602,13 +5463,13 @@
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="63" t="s">
+      <c r="B4" t="s" s="435">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="436">
         <v>48</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" t="s" s="437">
         <v>44</v>
       </c>
     </row>
@@ -4616,13 +5477,13 @@
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="98" t="s">
+      <c r="B5" t="s" s="472">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="473">
         <v>48</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" t="s" s="474">
         <v>44</v>
       </c>
     </row>

--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="112">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -353,6 +353,21 @@
   </si>
   <si>
     <t>181</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>11 Feb 2024</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>16 Feb 2024</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -360,7 +375,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="477" x14ac:knownFonts="1">
+  <fonts count="609" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3021,6 +3036,666 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3043,7 +3718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="610">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -3526,6 +4201,138 @@
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3860,19 +4667,19 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s" s="335">
+      <c r="D2" t="s" s="572">
         <v>49</v>
       </c>
-      <c r="E2" t="s" s="337">
+      <c r="E2" t="s" s="574">
         <v>51</v>
       </c>
-      <c r="F2" t="s" s="342">
+      <c r="F2" t="s" s="580">
         <v>78</v>
       </c>
-      <c r="G2" t="s" s="351">
+      <c r="G2" t="s" s="589">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="336">
+      <c r="H2" t="s" s="573">
         <v>50</v>
       </c>
     </row>
@@ -3886,7 +4693,7 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="371">
+      <c r="D3" t="s" s="609">
         <v>49</v>
       </c>
       <c r="E3" t="s" s="373">
@@ -4114,19 +4921,19 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="338">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s" s="339">
+      <c r="C2" t="s" s="575">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s" s="576">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="340">
+      <c r="F2" t="s" s="577">
         <v>83</v>
       </c>
-      <c r="G2" t="s" s="341">
+      <c r="G2" t="s" s="578">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="284">
+      <c r="H2" t="s" s="579">
         <v>45</v>
       </c>
     </row>
@@ -4354,25 +5161,25 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s" s="343">
+      <c r="E2" t="s" s="581">
         <v>102</v>
       </c>
-      <c r="G2" t="s" s="344">
+      <c r="G2" t="s" s="582">
         <v>103</v>
       </c>
-      <c r="H2" t="s" s="346">
+      <c r="H2" t="s" s="584">
         <v>103</v>
       </c>
-      <c r="I2" t="s" s="345">
+      <c r="I2" t="s" s="583">
         <v>104</v>
       </c>
-      <c r="J2" t="s" s="347">
+      <c r="J2" t="s" s="585">
         <v>104</v>
       </c>
-      <c r="K2" t="s" s="348">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s" s="350">
+      <c r="K2" t="s" s="586">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s" s="588">
         <v>37</v>
       </c>
     </row>
@@ -4665,10 +5472,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="352">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s" s="353">
+      <c r="C2" t="s" s="590">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s" s="591">
         <v>47</v>
       </c>
     </row>
@@ -4829,28 +5636,28 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="354">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="355">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s" s="356">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s" s="358">
+      <c r="C2" t="s" s="592">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="593">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="594">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="596">
         <v>38</v>
       </c>
-      <c r="H2" t="s" s="362">
+      <c r="H2" t="s" s="600">
         <v>21</v>
       </c>
-      <c r="I2" t="s" s="359">
+      <c r="I2" t="s" s="597">
         <v>38</v>
       </c>
-      <c r="K2" t="s" s="360">
+      <c r="K2" t="s" s="598">
         <v>38</v>
       </c>
-      <c r="L2" t="s" s="361">
+      <c r="L2" t="s" s="599">
         <v>37</v>
       </c>
     </row>
@@ -4861,28 +5668,28 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="391">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s" s="392">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s" s="393">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s" s="395">
+      <c r="C3" t="s" s="548">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="549">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s" s="550">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s" s="552">
         <v>38</v>
       </c>
-      <c r="H3" t="s" s="399">
+      <c r="H3" t="s" s="556">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="396">
+      <c r="I3" t="s" s="553">
         <v>38</v>
       </c>
-      <c r="K3" t="s" s="397">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s" s="398">
+      <c r="K3" t="s" s="554">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s" s="555">
         <v>37</v>
       </c>
     </row>
@@ -4893,28 +5700,28 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="426">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="427">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s" s="428">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s" s="430">
+      <c r="C4" t="s" s="557">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="558">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="559">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="561">
         <v>38</v>
       </c>
-      <c r="H4" t="s" s="434">
+      <c r="H4" t="s" s="565">
         <v>21</v>
       </c>
-      <c r="I4" t="s" s="431">
+      <c r="I4" t="s" s="562">
         <v>38</v>
       </c>
-      <c r="K4" t="s" s="432">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s" s="433">
+      <c r="K4" t="s" s="563">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s" s="564">
         <v>37</v>
       </c>
     </row>
@@ -4925,22 +5732,22 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="463">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="464">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s" s="465">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="467">
+      <c r="C5" t="s" s="566">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="567">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="568">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s" s="570">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="471">
+      <c r="H5" t="s" s="569">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="468">
+      <c r="I5" t="s" s="571">
         <v>38</v>
       </c>
       <c r="K5" t="s" s="469">
@@ -5121,13 +5928,13 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="366">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="367">
+      <c r="C2" t="s" s="604">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="605">
         <v>44</v>
       </c>
-      <c r="E2" t="s" s="368">
+      <c r="E2" t="s" s="606">
         <v>38</v>
       </c>
     </row>
@@ -5291,10 +6098,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="369">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="370">
+      <c r="C2" t="s" s="607">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="608">
         <v>37</v>
       </c>
     </row>
@@ -5435,13 +6242,13 @@
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="363">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s" s="364">
+      <c r="B2" t="s" s="601">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="602">
         <v>48</v>
       </c>
-      <c r="D2" t="s" s="365">
+      <c r="D2" t="s" s="603">
         <v>44</v>
       </c>
     </row>

--- a/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
+++ b/com.AE_Management/src/main/resources/Data/Regrassion.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="123">
   <si>
     <t>VesselAECode</t>
   </si>
@@ -368,6 +368,39 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>Download Popup Not shown</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>23 Feb 2024</t>
+  </si>
+  <si>
+    <t>26 Feb 2024</t>
+  </si>
+  <si>
+    <t>05 Mar 2024</t>
+  </si>
+  <si>
+    <t>02 Mar 2024</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>134</t>
   </si>
 </sst>
 </file>
@@ -375,7 +408,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="609" x14ac:knownFonts="1">
+  <fonts count="1166" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3686,6 +3719,2791 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3718,7 +6536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="610">
+  <cellXfs count="1167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -4333,6 +7151,563 @@
     <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="865" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="866" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="870" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="884" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="913" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="914" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="926" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="929" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="930" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="939" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="955" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="961" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="962" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="963" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="965" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="967" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="969" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="973" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="975" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="977" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="978" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="979" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="983" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="985" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="988" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="989" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="990" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="991" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="993" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="995" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="998" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1003" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1004" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1005" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1006" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1009" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1011" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1015" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1021" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1025" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1026" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1033" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1035" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1036" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1041" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1042" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1047" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1048" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1049" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1050" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1051" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1052" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1053" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1056" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1057" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1058" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1062" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1063" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1065" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1068" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1069" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1070" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1073" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1074" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1075" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1079" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1081" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1083" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1084" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1085" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1086" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1087" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1089" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1090" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1091" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1093" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1095" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1097" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1099" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4667,19 +8042,19 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s" s="572">
+      <c r="D2" t="s" s="917">
         <v>49</v>
       </c>
-      <c r="E2" t="s" s="574">
+      <c r="E2" t="s" s="919">
         <v>51</v>
       </c>
-      <c r="F2" t="s" s="580">
+      <c r="F2" t="s" s="925">
         <v>78</v>
       </c>
-      <c r="G2" t="s" s="589">
+      <c r="G2" t="s" s="935">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="573">
+      <c r="H2" t="s" s="918">
         <v>50</v>
       </c>
     </row>
@@ -4693,19 +8068,19 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="609">
+      <c r="D3" t="s" s="820">
         <v>49</v>
       </c>
-      <c r="E3" t="s" s="373">
+      <c r="E3" t="s" s="955">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="379">
+      <c r="F3" t="s" s="960">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="388">
+      <c r="G3" t="s" s="970">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="372">
+      <c r="H3" t="s" s="954">
         <v>50</v>
       </c>
     </row>
@@ -4719,19 +8094,19 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s" s="406">
+      <c r="D4" t="s" s="987">
         <v>49</v>
       </c>
-      <c r="E4" t="s" s="408">
+      <c r="E4" t="s" s="989">
         <v>51</v>
       </c>
-      <c r="F4" t="s" s="414">
+      <c r="F4" t="s" s="995">
         <v>78</v>
       </c>
-      <c r="G4" t="s" s="423">
+      <c r="G4" t="s" s="1005">
         <v>52</v>
       </c>
-      <c r="H4" t="s" s="407">
+      <c r="H4" t="s" s="988">
         <v>50</v>
       </c>
     </row>
@@ -4745,19 +8120,19 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s" s="443">
+      <c r="D5" t="s" s="1024">
         <v>49</v>
       </c>
-      <c r="E5" t="s" s="445">
+      <c r="E5" t="s" s="1026">
         <v>51</v>
       </c>
-      <c r="F5" t="s" s="451">
+      <c r="F5" t="s" s="1032">
         <v>78</v>
       </c>
-      <c r="G5" t="s" s="460">
+      <c r="G5" t="s" s="1042">
         <v>52</v>
       </c>
-      <c r="H5" t="s" s="444">
+      <c r="H5" t="s" s="1025">
         <v>50</v>
       </c>
     </row>
@@ -4771,19 +8146,19 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" t="s" s="1062">
         <v>49</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" t="s" s="1064">
         <v>51</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" t="s" s="1070">
         <v>78</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" t="s" s="1080">
         <v>52</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" t="s" s="1063">
         <v>50</v>
       </c>
     </row>
@@ -4797,19 +8172,19 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" t="s" s="1092">
         <v>49</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" t="s" s="1094">
         <v>51</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" t="s" s="1100">
         <v>78</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" t="s" s="1110">
         <v>52</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" t="s" s="1093">
         <v>50</v>
       </c>
     </row>
@@ -4849,19 +8224,19 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" t="s" s="1130">
         <v>49</v>
       </c>
-      <c r="E9" s="206" t="s">
+      <c r="E9" t="s" s="1132">
         <v>51</v>
       </c>
-      <c r="F9" s="210" t="s">
+      <c r="F9" t="s" s="1138">
         <v>78</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" t="s" s="1148">
         <v>52</v>
       </c>
-      <c r="H9" s="205" t="s">
+      <c r="H9" t="s" s="1131">
         <v>50</v>
       </c>
     </row>
@@ -4921,19 +8296,19 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="575">
+      <c r="C2" t="s" s="920">
         <v>110</v>
       </c>
-      <c r="D2" t="s" s="576">
+      <c r="D2" t="s" s="921">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="577">
+      <c r="F2" t="s" s="922">
         <v>83</v>
       </c>
-      <c r="G2" t="s" s="578">
+      <c r="G2" t="s" s="923">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="579">
+      <c r="H2" t="s" s="924">
         <v>45</v>
       </c>
     </row>
@@ -4944,19 +8319,19 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="374">
+      <c r="C3" t="s" s="956">
         <v>91</v>
       </c>
-      <c r="D3" t="s" s="375">
+      <c r="D3" t="s" s="957">
         <v>45</v>
       </c>
-      <c r="F3" t="s" s="376">
+      <c r="F3" t="s" s="958">
         <v>76</v>
       </c>
-      <c r="G3" t="s" s="377">
+      <c r="G3" t="s" s="959">
         <v>46</v>
       </c>
-      <c r="H3" t="s" s="378">
+      <c r="H3" t="s" s="827">
         <v>45</v>
       </c>
     </row>
@@ -4967,19 +8342,19 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="409">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s" s="410">
+      <c r="C4" t="s" s="990">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s" s="991">
         <v>45</v>
       </c>
-      <c r="F4" t="s" s="411">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s" s="412">
+      <c r="F4" t="s" s="992">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s" s="993">
         <v>46</v>
       </c>
-      <c r="H4" t="s" s="413">
+      <c r="H4" t="s" s="994">
         <v>45</v>
       </c>
     </row>
@@ -4990,19 +8365,19 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="446">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s" s="447">
+      <c r="C5" t="s" s="1027">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s" s="1028">
         <v>45</v>
       </c>
-      <c r="F5" t="s" s="448">
+      <c r="F5" t="s" s="1029">
         <v>76</v>
       </c>
-      <c r="G5" t="s" s="449">
+      <c r="G5" t="s" s="1030">
         <v>46</v>
       </c>
-      <c r="H5" t="s" s="450">
+      <c r="H5" t="s" s="1031">
         <v>45</v>
       </c>
     </row>
@@ -5013,17 +8388,20 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="109" t="s">
+      <c r="C6" t="s" s="1065">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s" s="1066">
         <v>45</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" t="s" s="1067">
         <v>76</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" t="s" s="1068">
         <v>46</v>
+      </c>
+      <c r="H6" t="s" s="1069">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -5033,19 +8411,19 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="139" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="140" t="s">
+      <c r="C7" t="s" s="1095">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s" s="1096">
         <v>45</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" t="s" s="1097">
         <v>83</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" t="s" s="1098">
         <v>46</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" t="s" s="1099">
         <v>45</v>
       </c>
     </row>
@@ -5079,14 +8457,20 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" t="s" s="1133">
         <v>97</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" t="s" s="1134">
         <v>45</v>
       </c>
-      <c r="F9" s="209" t="s">
+      <c r="F9" t="s" s="1135">
         <v>98</v>
+      </c>
+      <c r="G9" t="s" s="1136">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s" s="1137">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5161,25 +8545,25 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s" s="581">
-        <v>102</v>
-      </c>
-      <c r="G2" t="s" s="582">
+      <c r="E2" t="s" s="926">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s" s="927">
         <v>103</v>
       </c>
-      <c r="H2" t="s" s="584">
+      <c r="H2" t="s" s="929">
         <v>103</v>
       </c>
-      <c r="I2" t="s" s="583">
+      <c r="I2" t="s" s="928">
         <v>104</v>
       </c>
-      <c r="J2" t="s" s="585">
+      <c r="J2" t="s" s="930">
         <v>104</v>
       </c>
-      <c r="K2" t="s" s="586">
+      <c r="K2" t="s" s="931">
         <v>37</v>
       </c>
-      <c r="L2" t="s" s="588">
+      <c r="L2" t="s" s="933">
         <v>37</v>
       </c>
     </row>
@@ -5196,26 +8580,26 @@
       <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s" s="380">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s" s="381">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="383">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="382">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="384">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s" s="385">
+      <c r="E3" t="s" s="961">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s" s="962">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s" s="964">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s" s="963">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s" s="965">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s" s="966">
         <v>37</v>
       </c>
-      <c r="L3" t="s" s="387">
-        <v>38</v>
+      <c r="L3" t="s" s="968">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -5231,26 +8615,26 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="415">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s" s="416">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="418">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="417">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="419">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s" s="420">
+      <c r="E4" t="s" s="996">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s" s="997">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s" s="999">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s" s="998">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s" s="1000">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s" s="1001">
         <v>37</v>
       </c>
-      <c r="L4" t="s" s="422">
-        <v>38</v>
+      <c r="L4" t="s" s="1003">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -5266,26 +8650,26 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="452">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s" s="453">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s" s="455">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="454">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s" s="456">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s" s="457">
+      <c r="E5" t="s" s="1033">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s" s="1034">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s" s="1036">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s" s="1035">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s" s="1037">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="1038">
         <v>37</v>
       </c>
-      <c r="L5" t="s" s="459">
-        <v>38</v>
+      <c r="L5" t="s" s="1040">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -5301,26 +8685,26 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="117" t="s">
+      <c r="E6" t="s" s="1071">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s" s="1072">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s" s="1074">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s" s="1073">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s" s="1075">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="1076">
         <v>37</v>
       </c>
-      <c r="L6" s="118" t="s">
-        <v>38</v>
+      <c r="L6" t="s" s="1078">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -5336,26 +8720,26 @@
       <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="150" t="s">
+      <c r="E7" t="s" s="1101">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s" s="1102">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s" s="1104">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s" s="1103">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s" s="1105">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s" s="1106">
         <v>37</v>
       </c>
-      <c r="L7" s="151" t="s">
-        <v>38</v>
+      <c r="L7" t="s" s="1108">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -5406,26 +8790,26 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="211" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="212" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="214" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="213" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="215" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="216" t="s">
+      <c r="E9" t="s" s="1139">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s" s="1140">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s" s="1142">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s" s="1141">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s" s="1143">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="1144">
         <v>37</v>
       </c>
-      <c r="L9" s="217" t="s">
-        <v>38</v>
+      <c r="L9" t="s" s="1146">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5472,10 +8856,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="590">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s" s="591">
+      <c r="C2" t="s" s="936">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s" s="937">
         <v>47</v>
       </c>
     </row>
@@ -5486,10 +8870,10 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="389">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s" s="390">
+      <c r="C3" t="s" s="971">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s" s="972">
         <v>47</v>
       </c>
     </row>
@@ -5500,10 +8884,10 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="424">
+      <c r="C4" t="s" s="1006">
         <v>94</v>
       </c>
-      <c r="E4" t="s" s="425">
+      <c r="E4" t="s" s="1007">
         <v>47</v>
       </c>
     </row>
@@ -5514,10 +8898,10 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="461">
+      <c r="C5" t="s" s="1043">
         <v>85</v>
       </c>
-      <c r="E5" t="s" s="462">
+      <c r="E5" t="s" s="1044">
         <v>47</v>
       </c>
     </row>
@@ -5528,10 +8912,10 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="121" t="s">
+      <c r="C6" t="s" s="1081">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s" s="1082">
         <v>47</v>
       </c>
     </row>
@@ -5542,10 +8926,10 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="153" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="154" t="s">
+      <c r="C7" t="s" s="1111">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s" s="1112">
         <v>47</v>
       </c>
     </row>
@@ -5570,10 +8954,10 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="219" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="220" t="s">
+      <c r="C9" t="s" s="1149">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s" s="1150">
         <v>47</v>
       </c>
     </row>
@@ -5636,29 +9020,29 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="592">
+      <c r="C2" t="s" s="938">
         <v>37</v>
       </c>
-      <c r="D2" t="s" s="593">
+      <c r="D2" t="s" s="939">
         <v>37</v>
       </c>
-      <c r="E2" t="s" s="594">
+      <c r="E2" t="s" s="940">
         <v>37</v>
       </c>
-      <c r="G2" t="s" s="596">
+      <c r="G2" t="s" s="942">
         <v>38</v>
       </c>
-      <c r="H2" t="s" s="600">
+      <c r="H2" t="s" s="941">
         <v>21</v>
       </c>
-      <c r="I2" t="s" s="597">
+      <c r="I2" t="s" s="943">
         <v>38</v>
       </c>
-      <c r="K2" t="s" s="598">
+      <c r="K2" t="s" s="944">
         <v>38</v>
       </c>
-      <c r="L2" t="s" s="599">
-        <v>37</v>
+      <c r="L2" t="s" s="945">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -5668,28 +9052,28 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="548">
+      <c r="C3" t="s" s="973">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="549">
+      <c r="D3" t="s" s="974">
         <v>37</v>
       </c>
-      <c r="E3" t="s" s="550">
+      <c r="E3" t="s" s="975">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s" s="976">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s" s="980">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="977">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s" s="978">
         <v>37</v>
       </c>
-      <c r="G3" t="s" s="552">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s" s="556">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="553">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s" s="554">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s" s="555">
+      <c r="L3" t="s" s="979">
         <v>37</v>
       </c>
     </row>
@@ -5700,29 +9084,29 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="557">
+      <c r="C4" t="s" s="1008">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="558">
+      <c r="D4" t="s" s="1009">
         <v>37</v>
       </c>
-      <c r="E4" t="s" s="559">
+      <c r="E4" t="s" s="1010">
         <v>37</v>
       </c>
-      <c r="G4" t="s" s="561">
+      <c r="G4" t="s" s="1012">
         <v>38</v>
       </c>
-      <c r="H4" t="s" s="565">
+      <c r="H4" t="s" s="1011">
         <v>21</v>
       </c>
-      <c r="I4" t="s" s="562">
+      <c r="I4" t="s" s="1013">
         <v>38</v>
       </c>
-      <c r="K4" t="s" s="563">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s" s="564">
-        <v>37</v>
+      <c r="K4" t="s" s="1014">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s" s="1015">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -5732,28 +9116,28 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="566">
+      <c r="C5" t="s" s="1045">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="567">
+      <c r="D5" t="s" s="1046">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="568">
+      <c r="E5" t="s" s="1047">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="570">
+      <c r="G5" t="s" s="1049">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="569">
+      <c r="H5" t="s" s="1053">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="571">
+      <c r="I5" t="s" s="1050">
         <v>38</v>
       </c>
-      <c r="K5" t="s" s="469">
+      <c r="K5" t="s" s="1051">
         <v>37</v>
       </c>
-      <c r="L5" t="s" s="470">
+      <c r="L5" t="s" s="1052">
         <v>37</v>
       </c>
     </row>
@@ -5764,19 +9148,19 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" t="s" s="1083">
         <v>37</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" t="s" s="1084">
         <v>37</v>
       </c>
-      <c r="E6" s="124" t="s">
-        <v>38</v>
+      <c r="E6" t="s" s="1085">
+        <v>37</v>
       </c>
       <c r="G6" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" t="s" s="1079">
         <v>21</v>
       </c>
       <c r="I6" s="126" t="s">
@@ -5796,28 +9180,28 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" t="s" s="1113">
         <v>37</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" t="s" s="1114">
         <v>37</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="E7" t="s" s="1115">
         <v>37</v>
       </c>
-      <c r="G7" s="158" t="s">
+      <c r="G7" t="s" s="1117">
         <v>38</v>
       </c>
-      <c r="H7" s="162" t="s">
+      <c r="H7" t="s" s="1121">
         <v>21</v>
       </c>
-      <c r="I7" s="159" t="s">
+      <c r="I7" t="s" s="1118">
         <v>38</v>
       </c>
-      <c r="K7" s="160" t="s">
+      <c r="K7" t="s" s="1119">
         <v>37</v>
       </c>
-      <c r="L7" s="161" t="s">
+      <c r="L7" t="s" s="1120">
         <v>37</v>
       </c>
     </row>
@@ -5860,28 +9244,28 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" t="s" s="1151">
         <v>37</v>
       </c>
-      <c r="D9" s="222" t="s">
+      <c r="D9" t="s" s="1152">
         <v>37</v>
       </c>
-      <c r="E9" s="223" t="s">
+      <c r="E9" t="s" s="1153">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s" s="1154">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s" s="1158">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s" s="1155">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s" s="1156">
         <v>37</v>
       </c>
-      <c r="G9" s="224" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="228" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="227" t="s">
+      <c r="L9" t="s" s="1157">
         <v>37</v>
       </c>
     </row>
@@ -5928,13 +9312,13 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="604">
+      <c r="C2" t="s" s="949">
         <v>37</v>
       </c>
-      <c r="D2" t="s" s="605">
+      <c r="D2" t="s" s="950">
         <v>44</v>
       </c>
-      <c r="E2" t="s" s="606">
+      <c r="E2" t="s" s="951">
         <v>38</v>
       </c>
     </row>
@@ -5945,13 +9329,13 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="401">
+      <c r="C3" t="s" s="982">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="402">
+      <c r="D3" t="s" s="983">
         <v>44</v>
       </c>
-      <c r="E3" t="s" s="403">
+      <c r="E3" t="s" s="984">
         <v>38</v>
       </c>
     </row>
@@ -5962,13 +9346,13 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="438">
+      <c r="C4" t="s" s="1019">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="439">
+      <c r="D4" t="s" s="1020">
         <v>44</v>
       </c>
-      <c r="E4" t="s" s="440">
+      <c r="E4" t="s" s="1021">
         <v>38</v>
       </c>
     </row>
@@ -5979,13 +9363,13 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="475">
+      <c r="C5" t="s" s="1057">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="476">
+      <c r="D5" t="s" s="1058">
         <v>44</v>
       </c>
-      <c r="E5" t="s" s="477">
+      <c r="E5" t="s" s="1059">
         <v>38</v>
       </c>
     </row>
@@ -5996,13 +9380,13 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" t="s" s="1087">
         <v>37</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" t="s" s="1088">
         <v>44</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" t="s" s="1089">
         <v>38</v>
       </c>
     </row>
@@ -6013,13 +9397,13 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" t="s" s="1125">
         <v>37</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" t="s" s="1126">
         <v>44</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" t="s" s="1127">
         <v>38</v>
       </c>
     </row>
@@ -6047,13 +9431,13 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="C9" t="s" s="1162">
         <v>37</v>
       </c>
-      <c r="D9" s="233" t="s">
+      <c r="D9" t="s" s="1163">
         <v>44</v>
       </c>
-      <c r="E9" s="234" t="s">
+      <c r="E9" t="s" s="1164">
         <v>38</v>
       </c>
     </row>
@@ -6098,10 +9482,10 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s" s="607">
+      <c r="C2" t="s" s="952">
         <v>37</v>
       </c>
-      <c r="D2" t="s" s="608">
+      <c r="D2" t="s" s="953">
         <v>37</v>
       </c>
     </row>
@@ -6112,10 +9496,10 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="404">
+      <c r="C3" t="s" s="985">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="405">
+      <c r="D3" t="s" s="986">
         <v>37</v>
       </c>
     </row>
@@ -6126,10 +9510,10 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s" s="441">
+      <c r="C4" t="s" s="1022">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="442">
+      <c r="D4" t="s" s="1023">
         <v>37</v>
       </c>
     </row>
@@ -6140,10 +9524,10 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" t="s" s="1060">
         <v>37</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" t="s" s="1061">
         <v>37</v>
       </c>
     </row>
@@ -6154,10 +9538,10 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" t="s" s="1090">
         <v>37</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" t="s" s="1091">
         <v>37</v>
       </c>
     </row>
@@ -6168,10 +9552,10 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" t="s" s="1128">
         <v>37</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" t="s" s="1129">
         <v>37</v>
       </c>
     </row>
@@ -6196,10 +9580,10 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="235" t="s">
+      <c r="C9" t="s" s="1165">
         <v>37</v>
       </c>
-      <c r="D9" s="236" t="s">
+      <c r="D9" t="s" s="1166">
         <v>37</v>
       </c>
     </row>
@@ -6242,13 +9626,13 @@
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="601">
+      <c r="B2" t="s" s="946">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="602">
+      <c r="C2" t="s" s="947">
         <v>48</v>
       </c>
-      <c r="D2" t="s" s="603">
+      <c r="D2" t="s" s="948">
         <v>44</v>
       </c>
     </row>
@@ -6256,7 +9640,7 @@
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="400">
+      <c r="B3" t="s" s="981">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6270,13 +9654,13 @@
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s" s="435">
+      <c r="B4" t="s" s="1016">
         <v>37</v>
       </c>
-      <c r="C4" t="s" s="436">
+      <c r="C4" t="s" s="1017">
         <v>48</v>
       </c>
-      <c r="D4" t="s" s="437">
+      <c r="D4" t="s" s="1018">
         <v>44</v>
       </c>
     </row>
@@ -6284,13 +9668,13 @@
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s" s="472">
+      <c r="B5" t="s" s="1054">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="473">
+      <c r="C5" t="s" s="1055">
         <v>48</v>
       </c>
-      <c r="D5" t="s" s="474">
+      <c r="D5" t="s" s="1056">
         <v>44</v>
       </c>
     </row>
@@ -6298,7 +9682,7 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" t="s" s="1086">
         <v>38</v>
       </c>
     </row>
@@ -6306,13 +9690,13 @@
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" t="s" s="1122">
         <v>37</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" t="s" s="1123">
         <v>48</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" t="s" s="1124">
         <v>44</v>
       </c>
     </row>
@@ -6328,13 +9712,13 @@
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" t="s" s="1159">
         <v>37</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" t="s" s="1160">
         <v>48</v>
       </c>
-      <c r="D9" s="231" t="s">
+      <c r="D9" t="s" s="1161">
         <v>44</v>
       </c>
     </row>
